--- a/test-output/Epay_Transactions/Output_data.xlsx
+++ b/test-output/Epay_Transactions/Output_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automations_TechM\LuckyScratch\test-output\Epay_Transactions\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NAME</t>
   </si>
@@ -46,67 +46,12 @@
   </si>
   <si>
     <t>CALLBACK_SENT</t>
-  </si>
-  <si>
-    <t>4419126</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4539839871221654</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>silvia@kmail.com</t>
-  </si>
-  <si>
-    <t>Silvia K Villanueva</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>4532330560879512</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>Currency-code-invalid</t>
-  </si>
-  <si>
-    <t>victor@smail.com</t>
-  </si>
-  <si>
-    <t>Victor S Snow</t>
-  </si>
-  <si>
-    <t>AUR</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,15 +381,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="3.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="34.28515625" collapsed="true"/>
-    <col min="7" max="8" style="1" width="22.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="12.140625" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="22.5703125" collapsed="true"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="22.5703125" style="1" collapsed="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="22.5703125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -476,63 +421,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
-    <row r="3">
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4"/>

--- a/test-output/Epay_Transactions/Output_data.xlsx
+++ b/test-output/Epay_Transactions/Output_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automations_TechM\LuckyScratch\test-output\Epay_Transactions\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>NAME</t>
   </si>
@@ -46,12 +46,70 @@
   </si>
   <si>
     <t>CALLBACK_SENT</t>
+  </si>
+  <si>
+    <t>4419194</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4711100000000000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>silvia@kmail.com</t>
+  </si>
+  <si>
+    <t>Silvia K Villanueva</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>4419195</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>4532330560879512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>Currency-code-invalid</t>
+  </si>
+  <si>
+    <t>victor@smail.com</t>
+  </si>
+  <si>
+    <t>Victor S Snow</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,15 +439,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="22.5703125" style="1" collapsed="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="22.5703125" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="3.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="34.28515625" collapsed="true"/>
+    <col min="7" max="8" style="1" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="22.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -421,27 +479,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4"/>
